--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2.1-500-4 (Ведьма).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2.1-500-4 (Ведьма).xlsx
@@ -1003,6 +1003,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1012,20 +1026,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1336,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1357,29 +1357,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="39"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -2059,12 +2059,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="110"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2073,10 +2073,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="107" t="s">
+      <c r="A36" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="107"/>
+      <c r="B36" s="113"/>
       <c r="C36" s="12" t="s">
         <v>17</v>
       </c>
@@ -2091,11 +2091,11 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="105">
+      <c r="A37" s="111">
         <f>A20-F31</f>
         <v>14749676</v>
       </c>
-      <c r="B37" s="106"/>
+      <c r="B37" s="112"/>
       <c r="C37" s="89">
         <f>1-G31</f>
         <v>0.95777116883116886</v>
@@ -2157,8 +2157,8 @@
       <c r="F41" s="70"/>
       <c r="G41" s="70"/>
       <c r="H41" s="70"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="104"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="110"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="71"/>
@@ -2252,9 +2252,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="111"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="112"/>
+      <c r="B51" s="106"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="107"/>
       <c r="E51" s="76"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2271,8 +2271,8 @@
       <c r="F52" s="70"/>
       <c r="G52" s="70"/>
       <c r="H52" s="70"/>
-      <c r="I52" s="103"/>
-      <c r="J52" s="104"/>
+      <c r="I52" s="109"/>
+      <c r="J52" s="110"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="71"/>
@@ -2283,8 +2283,8 @@
       <c r="F53" s="73"/>
       <c r="G53" s="73"/>
       <c r="H53" s="72"/>
-      <c r="I53" s="108"/>
-      <c r="J53" s="108"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="105"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="71"/>
@@ -2295,8 +2295,8 @@
       <c r="F54" s="74"/>
       <c r="G54" s="74"/>
       <c r="H54" s="74"/>
-      <c r="I54" s="108"/>
-      <c r="J54" s="108"/>
+      <c r="I54" s="105"/>
+      <c r="J54" s="105"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2309,23 +2309,18 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="103"/>
-      <c r="C60" s="104"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="110"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="103"/>
-      <c r="C67" s="104"/>
+      <c r="B67" s="109"/>
+      <c r="C67" s="110"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2333,6 +2328,11 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
